--- a/tables/table_Clostridium.xlsx
+++ b/tables/table_Clostridium.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_Clostridium.xlsx
+++ b/tables/table_Clostridium.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_Clostridium.xlsx
+++ b/tables/table_Clostridium.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>済 &lt;br&gt;（陽性率のみ反映）</t>
         </is>
       </c>
     </row>
